--- a/data/scheduling_DNN/predict/0.5/result9.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result9.xlsx
@@ -570,10 +570,10 @@
         <v>0.872236967086792</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.3972126245498657</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004012402147054672</v>
+        <v>0.2256481200456619</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8692641258239746</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8805369734764099</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03887606412172318</v>
+        <v>0.0001270770881092176</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9539790153503418</v>
       </c>
       <c r="V4" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4035123586654663</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07937350124120712</v>
+        <v>0.3030135333538055</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9009449481964111</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.899412214756012</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04730379953980446</v>
+        <v>2.34927188103029e-06</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.898871898651123</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.5013652443885803</v>
       </c>
       <c r="W6" t="n">
-        <v>0.130684420466423</v>
+        <v>0.1580115407705307</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8694899082183838</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.5165709853172302</v>
       </c>
       <c r="W7" t="n">
-        <v>0.005546248983591795</v>
+        <v>0.1245517656207085</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9393069744110107</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5027173161506653</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1796648353338242</v>
+        <v>0.1906105279922485</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8790168762207031</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.8674346804618835</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1835986375808716</v>
+        <v>0.0001341472525382414</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8885660171508789</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4019732773303986</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2354963421821594</v>
+        <v>0.2367724925279617</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8762068748474121</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.493165910243988</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1187498718500137</v>
+        <v>0.1467203795909882</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8978400230407715</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.5173043608665466</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2733179926872253</v>
+        <v>0.1448073834180832</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8726530075073242</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.5168904066085815</v>
       </c>
       <c r="W13" t="n">
-        <v>0.005627135280519724</v>
+        <v>0.1265670210123062</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8696630001068115</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4991841912269592</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04322545230388641</v>
+        <v>0.1372545510530472</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9077839851379395</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.5162659287452698</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1648256629705429</v>
+        <v>0.1532863825559616</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8763811588287354</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.5083144903182983</v>
       </c>
       <c r="W16" t="n">
-        <v>0.181317925453186</v>
+        <v>0.1354730725288391</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8759372234344482</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4979427456855774</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04894288629293442</v>
+        <v>0.1428798288106918</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8774631023406982</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8929123878479004</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1158386319875717</v>
+        <v>0.0002386804262641817</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8578250408172607</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4894115626811981</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2275222539901733</v>
+        <v>0.1357284933328629</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8745810985565186</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.4229158163070679</v>
       </c>
       <c r="W20" t="n">
-        <v>0.008439649827778339</v>
+        <v>0.2040015310049057</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8755600452423096</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4971142113208771</v>
       </c>
       <c r="W21" t="n">
-        <v>0.09908659756183624</v>
+        <v>0.1432212442159653</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5236871242523193</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.5165177583694458</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0004774871922563761</v>
+        <v>5.139980567037128e-05</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5238211154937744</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5163712501525879</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0144352987408638</v>
+        <v>5.550049536395818e-05</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.590008020401001</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.8769722580909729</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03732190653681755</v>
+        <v>0.08234847337007523</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.522691011428833</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4029262661933899</v>
       </c>
       <c r="W25" t="n">
-        <v>8.062391862040386e-05</v>
+        <v>0.01434359420090914</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5292730331420898</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.3972396850585938</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0006804810836911201</v>
+        <v>0.0174328051507473</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5154130458831787</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8664817214012146</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01254063285887241</v>
+        <v>0.1232492178678513</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5139799118041992</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.3992542624473572</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0004117452772334218</v>
+        <v>0.01316197495907545</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5250480175018311</v>
       </c>
       <c r="V29" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4870234429836273</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0001127134746639058</v>
+        <v>0.001445868285372853</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5339841842651367</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.4876969456672668</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02652342990040779</v>
+        <v>0.002142508514225483</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5165090560913086</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.3991386294364929</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01665635965764523</v>
+        <v>0.01377581711858511</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.522942066192627</v>
       </c>
       <c r="V32" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8718100190162659</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1773572564125061</v>
+        <v>0.1217088475823402</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.514754056930542</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.500545859336853</v>
       </c>
       <c r="W33" t="n">
-        <v>0.183029517531395</v>
+        <v>0.0002018728846451268</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5335230827331543</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4884882569313049</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01685213856399059</v>
+        <v>0.00202813558280468</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.563262939453125</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.5071935653686523</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0254905391484499</v>
+        <v>0.003143774811178446</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5161278247833252</v>
       </c>
       <c r="V36" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.402925580739975</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1896195709705353</v>
+        <v>0.01281474810093641</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5131950378417969</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4932166934013367</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0005756619502790272</v>
+        <v>0.0003991342382505536</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5134701728820801</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.4237945675849915</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01100881956517696</v>
+        <v>0.008041714318096638</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5138847827911377</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.3972019553184509</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001302177435718477</v>
+        <v>0.01361488178372383</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5406398773193359</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4980968832969666</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0004383166087791324</v>
+        <v>0.001809906330890954</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5494978427886963</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.8653756976127625</v>
       </c>
       <c r="W41" t="n">
-        <v>0.06806260347366333</v>
+        <v>0.09977881610393524</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3921418190002441</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.3976345360279083</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0001310340885538608</v>
+        <v>3.016994014615193e-05</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4241518974304199</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4046899974346161</v>
       </c>
       <c r="W43" t="n">
-        <v>0.04739723727107048</v>
+        <v>0.0003787655441556126</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3895859718322754</v>
       </c>
       <c r="V44" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4040324985980988</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1554924100637436</v>
+        <v>0.000208702142117545</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3915879726409912</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.867875337600708</v>
       </c>
       <c r="W45" t="n">
-        <v>0.1728740483522415</v>
+        <v>0.2268496602773666</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4122788906097412</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4232279062271118</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0009751716279424727</v>
+        <v>0.0001198809404741041</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4104831218719482</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4104721546173096</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01083782501518726</v>
+        <v>1.202806743094698e-10</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3929009437561035</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4927614033222198</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0001094606341212057</v>
+        <v>0.009972111321985722</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3860170841217041</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4243883192539215</v>
       </c>
       <c r="W49" t="n">
-        <v>0.07225159555673599</v>
+        <v>0.001472351723350585</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3869640827178955</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8644253015518188</v>
       </c>
       <c r="W50" t="n">
-        <v>0.00821111723780632</v>
+        <v>0.2279692143201828</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3902289867401123</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4974266886711121</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01247157715260983</v>
+        <v>0.01149134710431099</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3861439228057861</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.5023391246795654</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02010387182235718</v>
+        <v>0.01350132469087839</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3880219459533691</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8709220886230469</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01581496745347977</v>
+        <v>0.2331925481557846</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3905580043792725</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.8778883218765259</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07087028026580811</v>
+        <v>0.2374908328056335</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3949768543243408</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.8661930561065674</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0003536749863997102</v>
+        <v>0.2220447063446045</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.389091968536377</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.4278074502944946</v>
       </c>
       <c r="W56" t="n">
-        <v>0.02326716855168343</v>
+        <v>0.001498888479545712</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3855090141296387</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5018001198768616</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0003279971715528518</v>
+        <v>0.01352362148463726</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3868820667266846</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8743564486503601</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07179678976535797</v>
+        <v>0.2376312762498856</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3889081478118896</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.4989510774612427</v>
       </c>
       <c r="W59" t="n">
-        <v>0.06964247673749924</v>
+        <v>0.01210944633930922</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3877649307250977</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8665480017662048</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0002899681567214429</v>
+        <v>0.2292332351207733</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3991618156433105</v>
       </c>
       <c r="V61" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8732697367668152</v>
       </c>
       <c r="W61" t="n">
-        <v>0.06543571501970291</v>
+        <v>0.2247783243656158</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8795089721679688</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8699297904968262</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1336095780134201</v>
+        <v>9.176072489935905e-05</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8758289813995361</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.5042895674705505</v>
       </c>
       <c r="W63" t="n">
-        <v>0.04813167452812195</v>
+        <v>0.1380415409803391</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8767518997192383</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.3972146511077881</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1126184090971947</v>
+        <v>0.2299559712409973</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8943839073181152</v>
       </c>
       <c r="V65" t="n">
-        <v>0.672019362449646</v>
+        <v>0.9002260565757751</v>
       </c>
       <c r="W65" t="n">
-        <v>0.049445990473032</v>
+        <v>3.413070953683928e-05</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8620500564575195</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.3972257673740387</v>
       </c>
       <c r="W66" t="n">
-        <v>0.107450008392334</v>
+        <v>0.2160616219043732</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8698818683624268</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8860154747962952</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2398923337459564</v>
+        <v>0.0002602932509034872</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8929159641265869</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.5045872926712036</v>
       </c>
       <c r="W68" t="n">
-        <v>0.003426776500418782</v>
+        <v>0.1507991552352905</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8658418655395508</v>
       </c>
       <c r="V69" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4898583292961121</v>
       </c>
       <c r="W69" t="n">
-        <v>0.006732275243848562</v>
+        <v>0.1413636207580566</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8646130561828613</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.5162910223007202</v>
       </c>
       <c r="W70" t="n">
-        <v>0.04952586442232132</v>
+        <v>0.121328242123127</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8638138771057129</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.5165712237358093</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2631960511207581</v>
+        <v>0.1205774620175362</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8765199184417725</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.863713264465332</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1418617516756058</v>
+        <v>0.0001640103873796761</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8784339427947998</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.516649603843689</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2788500785827637</v>
+        <v>0.1308879107236862</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8586740493774414</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.8741850256919861</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04149051010608673</v>
+        <v>0.0002405903796898201</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8646259307861328</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8703585267066956</v>
       </c>
       <c r="W75" t="n">
-        <v>0.233733668923378</v>
+        <v>3.286265564383939e-05</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8654680252075195</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.5074090957641602</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1048859506845474</v>
+        <v>0.128206193447113</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8853671550750732</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.869168758392334</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1460141539573669</v>
+        <v>0.0002623880573082715</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8882138729095459</v>
       </c>
       <c r="V78" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4011945128440857</v>
       </c>
       <c r="W78" t="n">
-        <v>0.262995719909668</v>
+        <v>0.2371878623962402</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9346151351928711</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.4091570377349854</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2822037637233734</v>
+        <v>0.276106208562851</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8740260601043701</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4034199714660645</v>
       </c>
       <c r="W80" t="n">
-        <v>0.136980727314949</v>
+        <v>0.2214700877666473</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8725211620330811</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.4103797674179077</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1283042132854462</v>
+        <v>0.2135746628046036</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5512111186981201</v>
       </c>
       <c r="V82" t="n">
-        <v>0.466268926858902</v>
+        <v>0.3972369134426117</v>
       </c>
       <c r="W82" t="n">
-        <v>0.007215175777673721</v>
+        <v>0.02370805665850639</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5312089920043945</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8673605918884277</v>
       </c>
       <c r="W83" t="n">
-        <v>0.006851719692349434</v>
+        <v>0.1129978969693184</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5890309810638428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.3972365260124207</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0514371432363987</v>
+        <v>0.03678511455655098</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5270800590515137</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.3972100019454956</v>
       </c>
       <c r="W85" t="n">
-        <v>0.003703120863065124</v>
+        <v>0.01686623133718967</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5208809375762939</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8839101195335388</v>
       </c>
       <c r="W86" t="n">
-        <v>0.08188842982053757</v>
+        <v>0.1317901909351349</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3972322642803192</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0005337760667316616</v>
+        <v>0.01711145602166653</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5216350555419922</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4188563227653503</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02862998284399509</v>
+        <v>0.01056346762925386</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.6236779689788818</v>
       </c>
       <c r="V89" t="n">
-        <v>0.531548023223877</v>
+        <v>0.3992889821529388</v>
       </c>
       <c r="W89" t="n">
-        <v>0.008487926796078682</v>
+        <v>0.05035041645169258</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5519890785217285</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8681696057319641</v>
       </c>
       <c r="W90" t="n">
-        <v>0.03111143223941326</v>
+        <v>0.09997012466192245</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5897831916809082</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.397215336561203</v>
       </c>
       <c r="W91" t="n">
-        <v>0.04414095729589462</v>
+        <v>0.03708237782120705</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.591717004776001</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8619574904441833</v>
       </c>
       <c r="W92" t="n">
-        <v>0.00791136734187603</v>
+        <v>0.07302992045879364</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.524960994720459</v>
       </c>
       <c r="V93" t="n">
-        <v>0.654166579246521</v>
+        <v>0.4849063754081726</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0166940838098526</v>
+        <v>0.00160437251906842</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.7549428939819336</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8659876585006714</v>
       </c>
       <c r="W94" t="n">
-        <v>0.009618056938052177</v>
+        <v>0.01233093999326229</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5374729633331299</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4244318008422852</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01570939458906651</v>
+        <v>0.01277830451726913</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5165271759033203</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.5081853866577148</v>
       </c>
       <c r="W96" t="n">
-        <v>0.09244703501462936</v>
+        <v>6.958544690860435e-05</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5244438648223877</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8674101829528809</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02958915382623672</v>
+        <v>0.117625892162323</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5158610343933105</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.5081342458724976</v>
       </c>
       <c r="W98" t="n">
-        <v>3.906512574758381e-06</v>
+        <v>5.970325946691446e-05</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5310909748077393</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.8658686280250549</v>
       </c>
       <c r="W99" t="n">
-        <v>0.006468265783041716</v>
+        <v>0.112076073884964</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.517362117767334</v>
       </c>
       <c r="V100" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4982517957687378</v>
       </c>
       <c r="W100" t="n">
-        <v>0.1807226538658142</v>
+        <v>0.0003652044106274843</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5188789367675781</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.3971913456916809</v>
       </c>
       <c r="W101" t="n">
-        <v>0.001666790922172368</v>
+        <v>0.01480786968022585</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4108381271362305</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8797292113304138</v>
       </c>
       <c r="W102" t="n">
-        <v>0.000886021472979337</v>
+        <v>0.219858855009079</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4073541164398193</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4107292890548706</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06013130024075508</v>
+        <v>1.139179039455485e-05</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4142739772796631</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.5164643526077271</v>
       </c>
       <c r="W104" t="n">
-        <v>0.004030477255582809</v>
+        <v>0.01044287253171206</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4559321403503418</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4095960259437561</v>
       </c>
       <c r="W105" t="n">
-        <v>0.003382593393325806</v>
+        <v>0.002147035440430045</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3888630867004395</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.397233784198761</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1772521436214447</v>
+        <v>7.006857777014375e-05</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.386958122253418</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.8688965439796448</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0002765517274383456</v>
+        <v>0.2322646379470825</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3896489143371582</v>
       </c>
       <c r="V108" t="n">
-        <v>0.350784033536911</v>
+        <v>0.5276256799697876</v>
       </c>
       <c r="W108" t="n">
-        <v>0.001510478905402124</v>
+        <v>0.01903758756816387</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3867759704589844</v>
       </c>
       <c r="V109" t="n">
-        <v>0.65655517578125</v>
+        <v>0.5147570967674255</v>
       </c>
       <c r="W109" t="n">
-        <v>0.07278081774711609</v>
+        <v>0.01637916825711727</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388347864151001</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.8893095850944519</v>
       </c>
       <c r="W110" t="n">
-        <v>0.07024376094341278</v>
+        <v>0.2509626448154449</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3909280300140381</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8682041168212891</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01252221688628197</v>
+        <v>0.2277924567461014</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4128739833831787</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8666339516639709</v>
       </c>
       <c r="W112" t="n">
-        <v>0.1363136470317841</v>
+        <v>0.205898106098175</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3931448459625244</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.5180791616439819</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06240830197930336</v>
+        <v>0.01560858357697725</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909440040588379</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.5056750774383545</v>
       </c>
       <c r="W114" t="n">
-        <v>0.003553132992237806</v>
+        <v>0.01316321920603514</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3906340599060059</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.857637345790863</v>
       </c>
       <c r="W115" t="n">
-        <v>0.03926079347729683</v>
+        <v>0.218092069029808</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3910419940948486</v>
       </c>
       <c r="V116" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.4133071601390839</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1789007484912872</v>
+        <v>0.0004957375931553543</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3902850151062012</v>
       </c>
       <c r="V117" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8929873108863831</v>
       </c>
       <c r="W117" t="n">
-        <v>0.1541851758956909</v>
+        <v>0.2527095973491669</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4208979606628418</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8682632446289062</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0089139798656106</v>
+        <v>0.2001356929540634</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3909099102020264</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4985939264297485</v>
       </c>
       <c r="W119" t="n">
-        <v>0.173873633146286</v>
+        <v>0.01159584708511829</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3922350406646729</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4245012402534485</v>
       </c>
       <c r="W120" t="n">
-        <v>0.001587518723681569</v>
+        <v>0.001041107578203082</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3926191329956055</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.5077151656150818</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02097717672586441</v>
+        <v>0.01324709691107273</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8782310485839844</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8606787919998169</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1846869289875031</v>
+        <v>0.0003080817114096135</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9876899719238281</v>
       </c>
       <c r="V123" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.5179237127304077</v>
       </c>
       <c r="W123" t="n">
-        <v>0.002047406043857336</v>
+        <v>0.2206803411245346</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8795359134674072</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8728818893432617</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05584608018398285</v>
+        <v>4.427603562362492e-05</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8745310306549072</v>
       </c>
       <c r="V125" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8750829696655273</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2433111518621445</v>
+        <v>3.046366714443138e-07</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8740808963775635</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4235183596611023</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2213295549154282</v>
+        <v>0.2030065953731537</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9233920574188232</v>
       </c>
       <c r="V127" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4938262104988098</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1756178736686707</v>
+        <v>0.1845268160104752</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8597650527954102</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.3975945711135864</v>
       </c>
       <c r="W128" t="n">
-        <v>0.04280923679471016</v>
+        <v>0.2136015594005585</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8692409992218018</v>
       </c>
       <c r="V129" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.397235631942749</v>
       </c>
       <c r="W129" t="n">
-        <v>0.007316428236663342</v>
+        <v>0.2227890640497208</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8799560070037842</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4237311482429504</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2268644124269485</v>
+        <v>0.2081411182880402</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8978049755096436</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4253978133201599</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1555204689502716</v>
+        <v>0.2231685221195221</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8709890842437744</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8735270500183105</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1263689249753952</v>
+        <v>6.441270215873374e-06</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8788979053497314</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8950362205505371</v>
       </c>
       <c r="W133" t="n">
-        <v>0.05486549809575081</v>
+        <v>0.0002604452311061323</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8618471622467041</v>
       </c>
       <c r="V134" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.5025575757026672</v>
       </c>
       <c r="W134" t="n">
-        <v>0.002487006364390254</v>
+        <v>0.1290890127420425</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>1.05617094039917</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8813523650169373</v>
       </c>
       <c r="W135" t="n">
-        <v>0.310157299041748</v>
+        <v>0.0305615346878767</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8799571990966797</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8745883107185364</v>
       </c>
       <c r="W136" t="n">
-        <v>0.004884081892669201</v>
+        <v>2.882496301026549e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8671789169311523</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4100145995616913</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1318466663360596</v>
+        <v>0.2089992165565491</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9123048782348633</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.4102781116962433</v>
       </c>
       <c r="W138" t="n">
-        <v>0.138531967997551</v>
+        <v>0.2520309090614319</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8689889907836914</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4038485884666443</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05128919705748558</v>
+        <v>0.2163555920124054</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8708188533782959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4107531607151031</v>
       </c>
       <c r="W140" t="n">
-        <v>0.004515576176345348</v>
+        <v>0.2116604447364807</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8649239540100098</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.4034478068351746</v>
       </c>
       <c r="W141" t="n">
-        <v>0.08296239376068115</v>
+        <v>0.2129602283239365</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5187549591064453</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.3992840647697449</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0005087169702164829</v>
+        <v>0.01427329424768686</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5201430320739746</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.5163874626159668</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0002545021416153759</v>
+        <v>1.410430195392109e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5215160846710205</v>
       </c>
       <c r="V144" t="n">
-        <v>0.381181538105011</v>
+        <v>0.5163341760635376</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01969378441572189</v>
+        <v>2.685217623366043e-05</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5182158946990967</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8728867173194885</v>
       </c>
       <c r="W145" t="n">
-        <v>8.994951349450275e-05</v>
+        <v>0.1257913857698441</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5176069736480713</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.5400823354721069</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01298480294644833</v>
+        <v>0.0005051419138908386</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.548659086227417</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4037666320800781</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0393482968211174</v>
+        <v>0.02099382318556309</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5717880725860596</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8683596253395081</v>
       </c>
       <c r="W148" t="n">
-        <v>0.001325686229392886</v>
+        <v>0.08795468509197235</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5193459987640381</v>
       </c>
       <c r="V149" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.4046851992607117</v>
       </c>
       <c r="W149" t="n">
-        <v>0.06944838166236877</v>
+        <v>0.01314709894359112</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.519136905670166</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.3972166180610657</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02834494784474373</v>
+        <v>0.01486455649137497</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5176470279693604</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.3991296589374542</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01530293468385935</v>
+        <v>0.01404636632651091</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5162220001220703</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.5032626986503601</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0003331817570142448</v>
+        <v>0.0001679434935795143</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.8730289340019226</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02426561340689659</v>
+        <v>0.127120703458786</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5195691585540771</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4096051454544067</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0002328233676962554</v>
+        <v>0.01209208462387323</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5217897891998291</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5165910124778748</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01402301527559757</v>
+        <v>2.702727942960337e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.532465934753418</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.3976585865020752</v>
       </c>
       <c r="W156" t="n">
-        <v>0.02297254092991352</v>
+        <v>0.01817302033305168</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5208268165588379</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.5001203417778015</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02104119397699833</v>
+        <v>0.0004287580959498882</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.519230842590332</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.8808000087738037</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0003169536357745528</v>
+        <v>0.1307322680950165</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5366659164428711</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.3975616693496704</v>
       </c>
       <c r="W159" t="n">
-        <v>0.001620288239791989</v>
+        <v>0.01934999227523804</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5238261222839355</v>
       </c>
       <c r="V160" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4911703169345856</v>
       </c>
       <c r="W160" t="n">
-        <v>0.02205879054963589</v>
+        <v>0.001066401600837708</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5205490589141846</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.9010350108146667</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01367802824825048</v>
+        <v>0.1447695642709732</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3945679664611816</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.5400452017784119</v>
       </c>
       <c r="W162" t="n">
-        <v>0.003150562522932887</v>
+        <v>0.02116362564265728</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.388002872467041</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.3992810547351837</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02230842784047127</v>
+        <v>0.0001271973887924105</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3870429992675781</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4933278560638428</v>
       </c>
       <c r="W164" t="n">
-        <v>0.02382330968976021</v>
+        <v>0.01129647064954042</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3943579196929932</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.3972248733043671</v>
       </c>
       <c r="W165" t="n">
-        <v>0.001899873255752027</v>
+        <v>8.219422852562275e-06</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3918938636779785</v>
       </c>
       <c r="V166" t="n">
-        <v>0.514474630355835</v>
+        <v>0.3975936770439148</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01502604410052299</v>
+        <v>3.24878710671328e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3967030048370361</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4033979177474976</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01159167569130659</v>
+        <v>4.482185977394693e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4005968570709229</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4873603284358978</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01286104321479797</v>
+        <v>0.00752789992839098</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3941287994384766</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4125007390975952</v>
       </c>
       <c r="W169" t="n">
-        <v>8.941441046772525e-05</v>
+        <v>0.0003375281812623143</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3948209285736084</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.3992509841918945</v>
       </c>
       <c r="W170" t="n">
-        <v>0.006891756784170866</v>
+        <v>1.962539317901246e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923599720001221</v>
       </c>
       <c r="V171" t="n">
-        <v>0.534324586391449</v>
+        <v>0.516566276550293</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0201539508998394</v>
+        <v>0.01542720571160316</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3947429656982422</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.3992339372634888</v>
       </c>
       <c r="W172" t="n">
-        <v>7.928776176413521e-05</v>
+        <v>2.01688253582688e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3942179679870605</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.5166197419166565</v>
       </c>
       <c r="W173" t="n">
-        <v>0.3047593235969543</v>
+        <v>0.01498219463974237</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3921840190887451</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4952607750892639</v>
       </c>
       <c r="W174" t="n">
-        <v>0.005492168478667736</v>
+        <v>0.01062481757253408</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3919720649719238</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.4887424111366272</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01201468333601952</v>
+        <v>0.00936449971050024</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3938288688659668</v>
       </c>
       <c r="V176" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8651989102363586</v>
       </c>
       <c r="W176" t="n">
-        <v>0.02178260870277882</v>
+        <v>0.2221897095441818</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4734749794006348</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.4943749308586121</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01505695935338736</v>
+        <v>0.0004368079826235771</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.9001356959342957</v>
       </c>
       <c r="W178" t="n">
-        <v>0.002928384579718113</v>
+        <v>0.2558808624744415</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3940341472625732</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.3975792527198792</v>
       </c>
       <c r="W179" t="n">
-        <v>0.04251981899142265</v>
+        <v>1.256777250091545e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3913469314575195</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.86775803565979</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0941365584731102</v>
+        <v>0.2269675433635712</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.3995919227600098</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4039230942726135</v>
       </c>
       <c r="W181" t="n">
-        <v>0.03069211170077324</v>
+        <v>1.875904672488105e-05</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9144349098205566</v>
       </c>
       <c r="V182" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8518280386924744</v>
       </c>
       <c r="W182" t="n">
-        <v>0.3177030682563782</v>
+        <v>0.003919620532542467</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8807940483093262</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8989227414131165</v>
       </c>
       <c r="W183" t="n">
-        <v>0.08528512716293335</v>
+        <v>0.000328649504808709</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8646979331970215</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4245142042636871</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2125359773635864</v>
+        <v>0.1937617212533951</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8704819679260254</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8652648329734802</v>
       </c>
       <c r="W185" t="n">
-        <v>0.03005637228488922</v>
+        <v>2.721849705267232e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8965930938720703</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8810441493988037</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2979124486446381</v>
+        <v>0.0002417696814518422</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9009768962860107</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8672475218772888</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1496351212263107</v>
+        <v>0.001137670711614192</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8677668571472168</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.5064427852630615</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1522136628627777</v>
+        <v>0.1305550783872604</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8664040565490723</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4243387579917908</v>
       </c>
       <c r="W189" t="n">
-        <v>0.09349502623081207</v>
+        <v>0.1954217255115509</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9241790771484375</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4141585826873779</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2709456384181976</v>
+        <v>0.2601208984851837</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8966829776763916</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.403536319732666</v>
       </c>
       <c r="W191" t="n">
-        <v>0.04583891481161118</v>
+        <v>0.2431936264038086</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8607211112976074</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.5165780186653137</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2355575710535049</v>
+        <v>0.1184344664216042</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8685550689697266</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.493022084236145</v>
       </c>
       <c r="W193" t="n">
-        <v>0.0784037858247757</v>
+        <v>0.1410250216722488</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9298441410064697</v>
       </c>
       <c r="V194" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4039617776870728</v>
       </c>
       <c r="W194" t="n">
-        <v>0.01536132860928774</v>
+        <v>0.2765522599220276</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8719420433044434</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.5170640349388123</v>
       </c>
       <c r="W195" t="n">
-        <v>0.03587383404374123</v>
+        <v>0.1259384006261826</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8620579242706299</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.5394378900527954</v>
       </c>
       <c r="W196" t="n">
-        <v>0.169244110584259</v>
+        <v>0.1040836870670319</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8667190074920654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.8795120120048523</v>
       </c>
       <c r="W197" t="n">
-        <v>0.04486746340990067</v>
+        <v>0.0001636609667912126</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9353389739990234</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4045895934104919</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1552064567804337</v>
+        <v>0.2816949188709259</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8705620765686035</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.4113842844963074</v>
       </c>
       <c r="W199" t="n">
-        <v>0.05220751464366913</v>
+        <v>0.2108442485332489</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8645579814910889</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8738815784454346</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1298666447401047</v>
+        <v>8.69294599397108e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8873090744018555</v>
       </c>
       <c r="V201" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.3972060084342957</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2878675162792206</v>
+        <v>0.240201011300087</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5730948448181152</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4035626351833344</v>
       </c>
       <c r="W202" t="n">
-        <v>0.006684198975563049</v>
+        <v>0.02874116972088814</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5187461376190186</v>
       </c>
       <c r="V203" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8620620965957642</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02837517112493515</v>
+        <v>0.1178658455610275</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5438840389251709</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4047999978065491</v>
       </c>
       <c r="W204" t="n">
-        <v>0.02833923697471619</v>
+        <v>0.01934437081217766</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5185070037841797</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8804570436477661</v>
       </c>
       <c r="W205" t="n">
-        <v>0.001885572215542197</v>
+        <v>0.1310078352689743</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5194830894470215</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.501031756401062</v>
       </c>
       <c r="W206" t="n">
-        <v>3.205244138371199e-05</v>
+        <v>0.0003404516901355237</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173511505126953</v>
       </c>
       <c r="V207" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8654888272285461</v>
       </c>
       <c r="W207" t="n">
-        <v>0.1853469014167786</v>
+        <v>0.1211998388171196</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5172579288482666</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.5016744136810303</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01289811916649342</v>
+        <v>0.0002428459411021322</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.526237964630127</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8574925661087036</v>
       </c>
       <c r="W209" t="n">
-        <v>3.562810525181703e-05</v>
+        <v>0.1097296103835106</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5203499794006348</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8729005455970764</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01780073530972004</v>
+        <v>0.124291904270649</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5229020118713379</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.8748319745063782</v>
       </c>
       <c r="W211" t="n">
-        <v>4.887781688012183e-05</v>
+        <v>0.1238546967506409</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5220921039581299</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.4917911291122437</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0001567358558531851</v>
+        <v>0.0009181490750052035</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5775690078735352</v>
       </c>
       <c r="V213" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.4235756993293762</v>
       </c>
       <c r="W213" t="n">
-        <v>0.1359426975250244</v>
+        <v>0.02371393889188766</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5237390995025635</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8680350780487061</v>
       </c>
       <c r="W214" t="n">
-        <v>0.003308571176603436</v>
+        <v>0.1185397207736969</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5385229587554932</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4980771839618683</v>
       </c>
       <c r="W215" t="n">
-        <v>0.03524655476212502</v>
+        <v>0.001635860651731491</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.522942066192627</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.5166580080986023</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0003398163244128227</v>
+        <v>3.948938683606684e-05</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5198440551757812</v>
       </c>
       <c r="V217" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4996287226676941</v>
       </c>
       <c r="W217" t="n">
-        <v>0.1800564527511597</v>
+        <v>0.0004086596600245684</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5384011268615723</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4996206760406494</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004875338170677423</v>
+        <v>0.001503923325799406</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5238790512084961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5018619298934937</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02207320556044579</v>
+        <v>0.0004847536329180002</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5223319530487061</v>
       </c>
       <c r="V220" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8751590847969055</v>
       </c>
       <c r="W220" t="n">
-        <v>0.06791824847459793</v>
+        <v>0.1244869828224182</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5204188823699951</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4130646586418152</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01364635676145554</v>
+        <v>0.01152492966502905</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3889620304107666</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4936671853065491</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06474672257900238</v>
+        <v>0.01096316985785961</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3904690742492676</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.5026732683181763</v>
       </c>
       <c r="W223" t="n">
-        <v>0.02907782420516014</v>
+        <v>0.0125897815451026</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.451002836227417</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.4123266637325287</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0573471412062645</v>
+        <v>0.001495846314355731</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3919010162353516</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.862634539604187</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01849808543920517</v>
+        <v>0.221590057015419</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.394556999206543</v>
       </c>
       <c r="V226" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4992488622665405</v>
       </c>
       <c r="W226" t="n">
-        <v>0.001915764645673335</v>
+        <v>0.01096038613468409</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3949589729309082</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4984393715858459</v>
       </c>
       <c r="W227" t="n">
-        <v>0.00195145164616406</v>
+        <v>0.01070819329470396</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3946681022644043</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4038062691688538</v>
       </c>
       <c r="W228" t="n">
-        <v>7.968951103975996e-05</v>
+        <v>8.350609277840704e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4027888774871826</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4015014171600342</v>
       </c>
       <c r="W229" t="n">
-        <v>0.001029889099299908</v>
+        <v>1.657554093981162e-06</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4266281127929688</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.8922179341316223</v>
       </c>
       <c r="W230" t="n">
-        <v>0.02622262574732304</v>
+        <v>0.2167738825082779</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3932058811187744</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.3975892961025238</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01453147735446692</v>
+        <v>1.921432703966275e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3953051567077637</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8713999390602112</v>
       </c>
       <c r="W232" t="n">
-        <v>0.020185187458992</v>
+        <v>0.2266662418842316</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3948218822479248</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4913157522678375</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1710519194602966</v>
+        <v>0.009311066940426826</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.8924963474273682</v>
       </c>
       <c r="W234" t="n">
-        <v>5.675437932950445e-05</v>
+        <v>0.2464353293180466</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4033010005950928</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4011642932891846</v>
       </c>
       <c r="W235" t="n">
-        <v>3.13583914390847e-09</v>
+        <v>4.565517883747816e-06</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3966259956359863</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8761515021324158</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06745167821645737</v>
+        <v>0.2299447059631348</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4052741527557373</v>
       </c>
       <c r="V237" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8816514611244202</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1430434882640839</v>
+        <v>0.2269353419542313</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3880190849304199</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4226159453392029</v>
       </c>
       <c r="W238" t="n">
-        <v>0.000299987819744274</v>
+        <v>0.001196942757815123</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3911049365997314</v>
       </c>
       <c r="V239" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.498618096113205</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1544272750616074</v>
+        <v>0.01155907940119505</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.38773512840271</v>
       </c>
       <c r="V240" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4062989354133606</v>
       </c>
       <c r="W240" t="n">
-        <v>0.3076764941215515</v>
+        <v>0.0003446149348746985</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4026589393615723</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4904928505420685</v>
       </c>
       <c r="W241" t="n">
-        <v>0.07832890003919601</v>
+        <v>0.007714795880019665</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9672250747680664</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.4994433224201202</v>
       </c>
       <c r="W242" t="n">
-        <v>0.18902587890625</v>
+        <v>0.2188197672367096</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8975329399108887</v>
       </c>
       <c r="V243" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4231391549110413</v>
       </c>
       <c r="W243" t="n">
-        <v>0.007642795797437429</v>
+        <v>0.2250494658946991</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8821520805358887</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.402749240398407</v>
       </c>
       <c r="W244" t="n">
-        <v>0.03377480804920197</v>
+        <v>0.2298270761966705</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8822150230407715</v>
       </c>
       <c r="V245" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4881046414375305</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2827695608139038</v>
+        <v>0.1553229987621307</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9294102191925049</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4977619051933289</v>
       </c>
       <c r="W246" t="n">
-        <v>0.3348216712474823</v>
+        <v>0.1863202601671219</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8806769847869873</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8681650757789612</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1417142897844315</v>
+        <v>0.000156547874212265</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8689508438110352</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.3972336649894714</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1332754790782928</v>
+        <v>0.2225171029567719</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8754711151123047</v>
       </c>
       <c r="V249" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.5164399147033691</v>
       </c>
       <c r="W249" t="n">
-        <v>0.008499902673065662</v>
+        <v>0.128903403878212</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9226012229919434</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4871738851070404</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1453485786914825</v>
+        <v>0.1895969659090042</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8905770778656006</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.401963859796524</v>
       </c>
       <c r="W251" t="n">
-        <v>0.03726315870881081</v>
+        <v>0.2387428730726242</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8801388740539551</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8700761198997498</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1401625275611877</v>
+        <v>0.0001012590219033882</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8717520236968994</v>
       </c>
       <c r="V253" t="n">
-        <v>0.782903790473938</v>
+        <v>0.424373984336853</v>
       </c>
       <c r="W253" t="n">
-        <v>0.007894008420407772</v>
+        <v>0.2001471072435379</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9338409900665283</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4046714901924133</v>
       </c>
       <c r="W254" t="n">
-        <v>0.07825779169797897</v>
+        <v>0.2800203561782837</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8768959045410156</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8666216731071472</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2767934203147888</v>
+        <v>0.0001055598331731744</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8689939975738525</v>
       </c>
       <c r="V256" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.873959481716156</v>
       </c>
       <c r="W256" t="n">
-        <v>0.007307702675461769</v>
+        <v>2.465603211021516e-05</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8710601329803467</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4038245379924774</v>
       </c>
       <c r="W257" t="n">
-        <v>0.127740815281868</v>
+        <v>0.2183091044425964</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.924069881439209</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.873556911945343</v>
       </c>
       <c r="W258" t="n">
-        <v>0.05836326256394386</v>
+        <v>0.002551560057327151</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8751871585845947</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.8744812607765198</v>
       </c>
       <c r="W259" t="n">
-        <v>0.05481385439634323</v>
+        <v>4.982917403140164e-07</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8642239570617676</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4900878071784973</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1042241901159286</v>
+        <v>0.1399778574705124</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8767940998077393</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.5086694955825806</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1313047260046005</v>
+        <v>0.1355157196521759</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5711698532104492</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.3991325497627258</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01241569966077805</v>
+        <v>0.029596833512187</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5552577972412109</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8597391843795776</v>
       </c>
       <c r="W263" t="n">
-        <v>0.05993519723415375</v>
+        <v>0.09270891547203064</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5221548080444336</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.4011445641517639</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01403780654072762</v>
+        <v>0.01464347913861275</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.525860071182251</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.86613529920578</v>
       </c>
       <c r="W265" t="n">
-        <v>0.02137654833495617</v>
+        <v>0.1157872304320335</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5292031764984131</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.5179105997085571</v>
       </c>
       <c r="W266" t="n">
-        <v>0.002659781370311975</v>
+        <v>0.0001275222894037142</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.600391149520874</v>
       </c>
       <c r="V267" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8723824620246887</v>
       </c>
       <c r="W267" t="n">
-        <v>0.003164810827001929</v>
+        <v>0.07397927343845367</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5250649452209473</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.5096750855445862</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0004095300973858684</v>
+        <v>0.0002368477871641517</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5265078544616699</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.8767166137695312</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01697598956525326</v>
+        <v>0.1226461753249168</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.52264404296875</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.5164611339569092</v>
       </c>
       <c r="W270" t="n">
-        <v>0.03049864992499352</v>
+        <v>3.822836515610106e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5447931289672852</v>
       </c>
       <c r="V271" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.5165164470672607</v>
       </c>
       <c r="W271" t="n">
-        <v>0.161108061671257</v>
+        <v>0.0007995707564987242</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5284049510955811</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8609338998794556</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0002102091530105099</v>
+        <v>0.1105755046010017</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5259659290313721</v>
       </c>
       <c r="V273" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.5268625617027283</v>
       </c>
       <c r="W273" t="n">
-        <v>0.07801533490419388</v>
+        <v>8.039501722123532e-07</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5542728900909424</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4011100232601166</v>
       </c>
       <c r="W274" t="n">
-        <v>0.00579209765419364</v>
+        <v>0.02345886453986168</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5230691432952881</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.3972325026988983</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0001293135719606653</v>
+        <v>0.01583486050367355</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5225927829742432</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8766171336174011</v>
       </c>
       <c r="W276" t="n">
-        <v>0.02951936237514019</v>
+        <v>0.125333234667778</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5266740322113037</v>
       </c>
       <c r="V277" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8719249963760376</v>
       </c>
       <c r="W277" t="n">
-        <v>0.08375200629234314</v>
+        <v>0.1191982254385948</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5616528987884521</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.3972442448139191</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0002087150496663526</v>
+        <v>0.02703020535409451</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5280048847198486</v>
       </c>
       <c r="V279" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.8924244046211243</v>
       </c>
       <c r="W279" t="n">
-        <v>0.07838369905948639</v>
+        <v>0.1328015923500061</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5216410160064697</v>
       </c>
       <c r="V280" t="n">
-        <v>0.54131019115448</v>
+        <v>0.5085654258728027</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0003868764615617692</v>
+        <v>0.0001709710631985217</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5326311588287354</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.4048173129558563</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01210779324173927</v>
+        <v>0.01633637957274914</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4524781703948975</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.5006217360496521</v>
       </c>
       <c r="W282" t="n">
-        <v>0.01041093748062849</v>
+        <v>0.002317802980542183</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4744329452514648</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8679746389389038</v>
       </c>
       <c r="W283" t="n">
-        <v>0.001605685916729271</v>
+        <v>0.1548750698566437</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4434061050415039</v>
       </c>
       <c r="V284" t="n">
-        <v>0.946087121963501</v>
+        <v>0.3972019851207733</v>
       </c>
       <c r="W284" t="n">
-        <v>0.2526881992816925</v>
+        <v>0.002134820679202676</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4011349678039551</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.4990779459476471</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1592487990856171</v>
+        <v>0.009592827409505844</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3992571830749512</v>
       </c>
       <c r="V286" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8859003186225891</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1478657573461533</v>
+        <v>0.2368215471506119</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4034531116485596</v>
       </c>
       <c r="V287" t="n">
-        <v>0.514564037322998</v>
+        <v>0.5448039174079895</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01234563812613487</v>
+        <v>0.0199800506234169</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4011249542236328</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8607314229011536</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01286044809967279</v>
+        <v>0.2112381011247635</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4383440017700195</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.8799329996109009</v>
       </c>
       <c r="W289" t="n">
-        <v>0.04139984399080276</v>
+        <v>0.1950008422136307</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3972949981689453</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4025463461875916</v>
       </c>
       <c r="W290" t="n">
-        <v>0.02666659094393253</v>
+        <v>2.75766560662305e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.405797004699707</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4048455953598022</v>
       </c>
       <c r="W291" t="n">
-        <v>0.08105451613664627</v>
+        <v>9.051797178472043e-07</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4050390720367432</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8994931578636169</v>
       </c>
       <c r="W292" t="n">
-        <v>0.002943431260064244</v>
+        <v>0.2444848418235779</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3970668315887451</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8845468163490295</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0208260640501976</v>
+        <v>0.2376367300748825</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3950989246368408</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4988093078136444</v>
       </c>
       <c r="W294" t="n">
-        <v>6.593827856704593e-05</v>
+        <v>0.01075584348291159</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3956139087677002</v>
       </c>
       <c r="V295" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8951998353004456</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1499447077512741</v>
+        <v>0.2495861053466797</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3970389366149902</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8879026770591736</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01363816298544407</v>
+        <v>0.2409472167491913</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4007880687713623</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8670123815536499</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01046356838196516</v>
+        <v>0.2173651158809662</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3968091011047363</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.8649712204933167</v>
       </c>
       <c r="W298" t="n">
-        <v>0.08166807144880295</v>
+        <v>0.2191757708787918</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4076671600341797</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.5002726316452026</v>
       </c>
       <c r="W299" t="n">
-        <v>1.655700725677889e-05</v>
+        <v>0.008575773797929287</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.9002973437309265</v>
       </c>
       <c r="W300" t="n">
-        <v>0.01046778820455074</v>
+        <v>0.2520404160022736</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982551097869873</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8588768839836121</v>
       </c>
       <c r="W301" t="n">
-        <v>0.05907897278666496</v>
+        <v>0.2121724188327789</v>
       </c>
     </row>
     <row r="302" spans="1:23">
